--- a/data/pca/factorExposure/factorExposure_2015-11-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01451385643871614</v>
+        <v>-0.01257545268179755</v>
       </c>
       <c r="C2">
-        <v>-0.02922964314708926</v>
+        <v>0.03546937805944447</v>
       </c>
       <c r="D2">
-        <v>0.09627216474127126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.129564868815165</v>
+      </c>
+      <c r="E2">
+        <v>0.06730969617393233</v>
+      </c>
+      <c r="F2">
+        <v>-0.02505046770312993</v>
+      </c>
+      <c r="G2">
+        <v>0.08532616499712226</v>
+      </c>
+      <c r="H2">
+        <v>-0.07238134465689744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01672715687858236</v>
+        <v>-0.01013340713206805</v>
       </c>
       <c r="C3">
-        <v>-0.05764614964690956</v>
+        <v>0.04310116182799571</v>
       </c>
       <c r="D3">
-        <v>0.08811657367461799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0553595099955219</v>
+      </c>
+      <c r="E3">
+        <v>0.04852038009657775</v>
+      </c>
+      <c r="F3">
+        <v>-0.05926801504468778</v>
+      </c>
+      <c r="G3">
+        <v>0.1054794159940228</v>
+      </c>
+      <c r="H3">
+        <v>-0.01265014506297046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05173670684077669</v>
+        <v>-0.05230870380396315</v>
       </c>
       <c r="C4">
-        <v>-0.05015915552126753</v>
+        <v>0.06858986904762221</v>
       </c>
       <c r="D4">
-        <v>0.1253805936375553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1481853036721653</v>
+      </c>
+      <c r="E4">
+        <v>0.05358651712790121</v>
+      </c>
+      <c r="F4">
+        <v>-0.02437021637612626</v>
+      </c>
+      <c r="G4">
+        <v>-0.04548930373428559</v>
+      </c>
+      <c r="H4">
+        <v>-0.01078732327605994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04185954219616761</v>
+        <v>-0.03979404269904845</v>
       </c>
       <c r="C6">
-        <v>-0.01579631367806563</v>
+        <v>0.02858388356995637</v>
       </c>
       <c r="D6">
-        <v>0.1406114353403994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1410533359702301</v>
+      </c>
+      <c r="E6">
+        <v>0.02717292269327656</v>
+      </c>
+      <c r="F6">
+        <v>-0.01790305957419574</v>
+      </c>
+      <c r="G6">
+        <v>0.008807589378321551</v>
+      </c>
+      <c r="H6">
+        <v>-0.05111020735360487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0184981645022653</v>
+        <v>-0.01306202920316908</v>
       </c>
       <c r="C7">
-        <v>-0.02266233206901556</v>
+        <v>0.03380156218541323</v>
       </c>
       <c r="D7">
-        <v>0.1029967171063245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09762420135147015</v>
+      </c>
+      <c r="E7">
+        <v>0.02164973429907471</v>
+      </c>
+      <c r="F7">
+        <v>-0.02086427706814843</v>
+      </c>
+      <c r="G7">
+        <v>0.02684265200097232</v>
+      </c>
+      <c r="H7">
+        <v>-0.07321518603047038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009426273770728492</v>
+        <v>-0.006419920977411202</v>
       </c>
       <c r="C8">
-        <v>-0.02669396494592444</v>
+        <v>0.03792852384372571</v>
       </c>
       <c r="D8">
-        <v>0.06313757392591576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08114497242932193</v>
+      </c>
+      <c r="E8">
+        <v>0.03180880163343607</v>
+      </c>
+      <c r="F8">
+        <v>-0.04585630559537926</v>
+      </c>
+      <c r="G8">
+        <v>0.0255340778632766</v>
+      </c>
+      <c r="H8">
+        <v>-0.03677510392703445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04311011893768558</v>
+        <v>-0.04144444565405759</v>
       </c>
       <c r="C9">
-        <v>-0.04745849472528187</v>
+        <v>0.06373179153395798</v>
       </c>
       <c r="D9">
-        <v>0.1099084054607919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1228809562362882</v>
+      </c>
+      <c r="E9">
+        <v>0.03982878381857449</v>
+      </c>
+      <c r="F9">
+        <v>-0.00537397091704391</v>
+      </c>
+      <c r="G9">
+        <v>-0.02550577267755863</v>
+      </c>
+      <c r="H9">
+        <v>-0.01427450902909697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1036904202199252</v>
+        <v>-0.1438218030181648</v>
       </c>
       <c r="C10">
-        <v>0.1878072070846989</v>
+        <v>-0.1884231069355988</v>
       </c>
       <c r="D10">
-        <v>-0.003052110567743927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006510655824124568</v>
+      </c>
+      <c r="E10">
+        <v>0.04668744752008341</v>
+      </c>
+      <c r="F10">
+        <v>-0.03008699053296781</v>
+      </c>
+      <c r="G10">
+        <v>-0.02548124001723297</v>
+      </c>
+      <c r="H10">
+        <v>0.030434818051517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0323007856627607</v>
+        <v>-0.02845316686205082</v>
       </c>
       <c r="C11">
-        <v>-0.03762463121340211</v>
+        <v>0.0442816065859442</v>
       </c>
       <c r="D11">
-        <v>0.05855020026636552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05881396373273873</v>
+      </c>
+      <c r="E11">
+        <v>-0.007552778800890624</v>
+      </c>
+      <c r="F11">
+        <v>-0.003299727466971884</v>
+      </c>
+      <c r="G11">
+        <v>0.01196159396518959</v>
+      </c>
+      <c r="H11">
+        <v>-0.03373446502377688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03852365759533748</v>
+        <v>-0.03353080797349709</v>
       </c>
       <c r="C12">
-        <v>-0.03864721031452275</v>
+        <v>0.04606069795993515</v>
       </c>
       <c r="D12">
-        <v>0.06229792994574031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05840902503023343</v>
+      </c>
+      <c r="E12">
+        <v>-0.0006062761061001696</v>
+      </c>
+      <c r="F12">
+        <v>0.006352781592299394</v>
+      </c>
+      <c r="G12">
+        <v>0.01748471877339202</v>
+      </c>
+      <c r="H12">
+        <v>-0.03022864634814839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01429250065037348</v>
+        <v>-0.01671904529865887</v>
       </c>
       <c r="C13">
-        <v>-0.03407692561662996</v>
+        <v>0.04150214632646895</v>
       </c>
       <c r="D13">
-        <v>0.1317120176289429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1513433682983976</v>
+      </c>
+      <c r="E13">
+        <v>0.03478820338550478</v>
+      </c>
+      <c r="F13">
+        <v>-0.03977649657686298</v>
+      </c>
+      <c r="G13">
+        <v>0.03115971981804085</v>
+      </c>
+      <c r="H13">
+        <v>-0.06730121986134471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005369271910548334</v>
+        <v>-0.006782867421226745</v>
       </c>
       <c r="C14">
-        <v>-0.01750985452030495</v>
+        <v>0.02365208749582146</v>
       </c>
       <c r="D14">
-        <v>0.08652931853665614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09272287681540896</v>
+      </c>
+      <c r="E14">
+        <v>0.03382603802151512</v>
+      </c>
+      <c r="F14">
+        <v>-0.0005978036718019174</v>
+      </c>
+      <c r="G14">
+        <v>0.03044488718562834</v>
+      </c>
+      <c r="H14">
+        <v>-0.08698868077548491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002178329976580607</v>
+        <v>-0.001268198690316146</v>
       </c>
       <c r="C15">
-        <v>-0.001755067576244778</v>
+        <v>0.01151815047465059</v>
       </c>
       <c r="D15">
-        <v>0.002473792277204546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03591786059948723</v>
+      </c>
+      <c r="E15">
+        <v>0.00794657623633364</v>
+      </c>
+      <c r="F15">
+        <v>0.000867337192639389</v>
+      </c>
+      <c r="G15">
+        <v>0.009208978848340032</v>
+      </c>
+      <c r="H15">
+        <v>-0.01660050648870756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03206819134145786</v>
+        <v>-0.02912528315524994</v>
       </c>
       <c r="C16">
-        <v>-0.03982048540132269</v>
+        <v>0.04421652907706636</v>
       </c>
       <c r="D16">
-        <v>0.06881347393472377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06472480438857189</v>
+      </c>
+      <c r="E16">
+        <v>0.004688050033523462</v>
+      </c>
+      <c r="F16">
+        <v>0.006015092032282493</v>
+      </c>
+      <c r="G16">
+        <v>0.01284500411366846</v>
+      </c>
+      <c r="H16">
+        <v>-0.04736449977659676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006868517408282611</v>
+        <v>-0.004705780247945437</v>
       </c>
       <c r="C19">
-        <v>-0.02830225988822391</v>
+        <v>0.02311820351017165</v>
       </c>
       <c r="D19">
-        <v>0.1537180737242536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1182669567845035</v>
+      </c>
+      <c r="E19">
+        <v>0.0598298562168134</v>
+      </c>
+      <c r="F19">
+        <v>0.006715046689141234</v>
+      </c>
+      <c r="G19">
+        <v>0.03830769742272252</v>
+      </c>
+      <c r="H19">
+        <v>-0.0303643161730807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01469431021703198</v>
+        <v>-0.01515666671575961</v>
       </c>
       <c r="C20">
-        <v>-0.0276435622370295</v>
+        <v>0.03380424237702646</v>
       </c>
       <c r="D20">
-        <v>0.08540284028327112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1022203621045223</v>
+      </c>
+      <c r="E20">
+        <v>0.0499745485160789</v>
+      </c>
+      <c r="F20">
+        <v>-0.002349969115280539</v>
+      </c>
+      <c r="G20">
+        <v>0.01117665758740317</v>
+      </c>
+      <c r="H20">
+        <v>-0.05084937692415504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007910000190377058</v>
+        <v>-0.009405600070689083</v>
       </c>
       <c r="C21">
-        <v>-0.02890637409189186</v>
+        <v>0.03881559447383309</v>
       </c>
       <c r="D21">
-        <v>0.1293025330684873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1410632249595664</v>
+      </c>
+      <c r="E21">
+        <v>0.07980307608417626</v>
+      </c>
+      <c r="F21">
+        <v>-0.006948887821437541</v>
+      </c>
+      <c r="G21">
+        <v>0.007388512259354235</v>
+      </c>
+      <c r="H21">
+        <v>-0.06097527552225171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00596346695070388</v>
+        <v>-0.0055259368313922</v>
       </c>
       <c r="C22">
-        <v>-0.02880542970303896</v>
+        <v>0.04174495779932293</v>
       </c>
       <c r="D22">
-        <v>0.09921774314939959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1559863851424478</v>
+      </c>
+      <c r="E22">
+        <v>0.02932758587802928</v>
+      </c>
+      <c r="F22">
+        <v>-0.0881582223814064</v>
+      </c>
+      <c r="G22">
+        <v>0.05513011153332564</v>
+      </c>
+      <c r="H22">
+        <v>-0.002682055204681081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006080112649480766</v>
+        <v>-0.005638069737366332</v>
       </c>
       <c r="C23">
-        <v>-0.02876797643875507</v>
+        <v>0.04222254854430429</v>
       </c>
       <c r="D23">
-        <v>0.09849455815029397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1553999984181701</v>
+      </c>
+      <c r="E23">
+        <v>0.02965944165080969</v>
+      </c>
+      <c r="F23">
+        <v>-0.08812868863463094</v>
+      </c>
+      <c r="G23">
+        <v>0.05422084986235383</v>
+      </c>
+      <c r="H23">
+        <v>-0.002424210971918481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0357936011994977</v>
+        <v>-0.03078760259313408</v>
       </c>
       <c r="C24">
-        <v>-0.04818576878818764</v>
+        <v>0.05606723844918666</v>
       </c>
       <c r="D24">
-        <v>0.06707773559979598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06754195397717792</v>
+      </c>
+      <c r="E24">
+        <v>0.01064411617261033</v>
+      </c>
+      <c r="F24">
+        <v>0.00242607298892294</v>
+      </c>
+      <c r="G24">
+        <v>0.008406634350804442</v>
+      </c>
+      <c r="H24">
+        <v>-0.05391108084111618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03880978849034383</v>
+        <v>-0.034638965611816</v>
       </c>
       <c r="C25">
-        <v>-0.04767623134484283</v>
+        <v>0.05358785446876426</v>
       </c>
       <c r="D25">
-        <v>0.06603656137856942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06345801879569081</v>
+      </c>
+      <c r="E25">
+        <v>0.01127294980152421</v>
+      </c>
+      <c r="F25">
+        <v>-0.00271957404873735</v>
+      </c>
+      <c r="G25">
+        <v>0.01003713012426601</v>
+      </c>
+      <c r="H25">
+        <v>-0.02525998551412518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01848268400562558</v>
+        <v>-0.01841996728439245</v>
       </c>
       <c r="C26">
-        <v>-0.006953588038003648</v>
+        <v>0.01722742144506663</v>
       </c>
       <c r="D26">
-        <v>0.05803130233280521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06679071063779952</v>
+      </c>
+      <c r="E26">
+        <v>0.02274082889658825</v>
+      </c>
+      <c r="F26">
+        <v>-0.0089817595429378</v>
+      </c>
+      <c r="G26">
+        <v>0.01699083216859016</v>
+      </c>
+      <c r="H26">
+        <v>-0.05785179979826142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1522183989269588</v>
+        <v>-0.2039884804137339</v>
       </c>
       <c r="C28">
-        <v>0.2614827092543675</v>
+        <v>-0.251783583344653</v>
       </c>
       <c r="D28">
-        <v>-0.03235551934440197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01180550127252436</v>
+      </c>
+      <c r="E28">
+        <v>0.07664941131418876</v>
+      </c>
+      <c r="F28">
+        <v>-0.01055193196679196</v>
+      </c>
+      <c r="G28">
+        <v>-0.04963295845203977</v>
+      </c>
+      <c r="H28">
+        <v>0.03150279696259595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003723176773740558</v>
+        <v>-0.004657646579919043</v>
       </c>
       <c r="C29">
-        <v>-0.01709361669012658</v>
+        <v>0.02232147153113209</v>
       </c>
       <c r="D29">
-        <v>0.07145109507760815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09046485965086763</v>
+      </c>
+      <c r="E29">
+        <v>0.03022618573019648</v>
+      </c>
+      <c r="F29">
+        <v>-0.01572120265081276</v>
+      </c>
+      <c r="G29">
+        <v>0.01428184045078268</v>
+      </c>
+      <c r="H29">
+        <v>-0.08841484642977489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03215003132474419</v>
+        <v>-0.03788238201843323</v>
       </c>
       <c r="C30">
-        <v>-0.03659036688088747</v>
+        <v>0.05969561149115626</v>
       </c>
       <c r="D30">
-        <v>0.1566852851315863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1732861250068349</v>
+      </c>
+      <c r="E30">
+        <v>0.02183401336027199</v>
+      </c>
+      <c r="F30">
+        <v>-0.007300732795251536</v>
+      </c>
+      <c r="G30">
+        <v>0.002143861800615072</v>
+      </c>
+      <c r="H30">
+        <v>-0.07543046977314791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06353076255437559</v>
+        <v>-0.05281164989258754</v>
       </c>
       <c r="C31">
-        <v>-0.05552899045006116</v>
+        <v>0.07481664733817003</v>
       </c>
       <c r="D31">
-        <v>0.06973613188545438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05514535292897296</v>
+      </c>
+      <c r="E31">
+        <v>0.02929455103618311</v>
+      </c>
+      <c r="F31">
+        <v>-0.03239778095051461</v>
+      </c>
+      <c r="G31">
+        <v>-0.002842263290280936</v>
+      </c>
+      <c r="H31">
+        <v>-0.0136998897022891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005875415198009136</v>
+        <v>-0.01533949051706006</v>
       </c>
       <c r="C32">
-        <v>-0.01579542641348458</v>
+        <v>0.01569439675943513</v>
       </c>
       <c r="D32">
-        <v>0.06935452951531455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1122014182396252</v>
+      </c>
+      <c r="E32">
+        <v>0.09023619190237449</v>
+      </c>
+      <c r="F32">
+        <v>-0.02831740985186031</v>
+      </c>
+      <c r="G32">
+        <v>0.01319987299477937</v>
+      </c>
+      <c r="H32">
+        <v>-0.05593440707111493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0226041263460613</v>
+        <v>-0.02384009827244171</v>
       </c>
       <c r="C33">
-        <v>-0.02986279052143912</v>
+        <v>0.04221227441458934</v>
       </c>
       <c r="D33">
-        <v>0.1334097468551543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1347222290119849</v>
+      </c>
+      <c r="E33">
+        <v>0.04156164877462362</v>
+      </c>
+      <c r="F33">
+        <v>-0.01686217983074005</v>
+      </c>
+      <c r="G33">
+        <v>0.02143991030396611</v>
+      </c>
+      <c r="H33">
+        <v>-0.0528415656402497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03317639309563368</v>
+        <v>-0.02701931142780145</v>
       </c>
       <c r="C34">
-        <v>-0.06049603172957278</v>
+        <v>0.06111240487416984</v>
       </c>
       <c r="D34">
-        <v>0.0702846306262363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05678769317326094</v>
+      </c>
+      <c r="E34">
+        <v>-0.006745111253720787</v>
+      </c>
+      <c r="F34">
+        <v>0.007527953205339972</v>
+      </c>
+      <c r="G34">
+        <v>0.0226280185536794</v>
+      </c>
+      <c r="H34">
+        <v>-0.0391800577908868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0009000894624171309</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009829835292737297</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005868958174075015</v>
+      </c>
+      <c r="E35">
+        <v>0.001436167779198729</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007566541367893831</v>
+      </c>
+      <c r="G35">
+        <v>0.001292222543882018</v>
+      </c>
+      <c r="H35">
+        <v>-0.002481068430447674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02016118702913135</v>
+        <v>-0.01933079562686108</v>
       </c>
       <c r="C36">
-        <v>-0.001970274284404484</v>
+        <v>0.01405484883333282</v>
       </c>
       <c r="D36">
-        <v>0.07402608723495768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07854570753682844</v>
+      </c>
+      <c r="E36">
+        <v>0.02880252123177589</v>
+      </c>
+      <c r="F36">
+        <v>-0.006241453400037286</v>
+      </c>
+      <c r="G36">
+        <v>0.00163972917594993</v>
+      </c>
+      <c r="H36">
+        <v>-0.04996421576145704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01930529662068228</v>
+        <v>-0.02018455180384592</v>
       </c>
       <c r="C38">
-        <v>-0.01542662190398369</v>
+        <v>0.02002099579409933</v>
       </c>
       <c r="D38">
-        <v>0.05717417916476865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06400560861049971</v>
+      </c>
+      <c r="E38">
+        <v>0.03432192808735986</v>
+      </c>
+      <c r="F38">
+        <v>0.005931355907832238</v>
+      </c>
+      <c r="G38">
+        <v>0.04414709092067437</v>
+      </c>
+      <c r="H38">
+        <v>-0.02592150082656386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03770490840784887</v>
+        <v>-0.03440464672937993</v>
       </c>
       <c r="C39">
-        <v>-0.04843933516123185</v>
+        <v>0.06691037525031804</v>
       </c>
       <c r="D39">
-        <v>0.08790860400266104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1036189646520298</v>
+      </c>
+      <c r="E39">
+        <v>0.003657950846007525</v>
+      </c>
+      <c r="F39">
+        <v>0.02597833125554993</v>
+      </c>
+      <c r="G39">
+        <v>0.01584813844639009</v>
+      </c>
+      <c r="H39">
+        <v>-0.08885031920274807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01756646925111612</v>
+        <v>-0.01223246536550988</v>
       </c>
       <c r="C40">
-        <v>-0.04123569425737608</v>
+        <v>0.03996426042922911</v>
       </c>
       <c r="D40">
-        <v>0.07179764648329948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08360213278259221</v>
+      </c>
+      <c r="E40">
+        <v>0.05825333633138714</v>
+      </c>
+      <c r="F40">
+        <v>-0.07835220283724631</v>
+      </c>
+      <c r="G40">
+        <v>0.1080511837366069</v>
+      </c>
+      <c r="H40">
+        <v>-0.09038329971306104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0250987829606269</v>
+        <v>-0.0235912410674463</v>
       </c>
       <c r="C41">
-        <v>0.00152128119871498</v>
+        <v>0.008520197920529205</v>
       </c>
       <c r="D41">
-        <v>0.06854708315278898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05712687471263778</v>
+      </c>
+      <c r="E41">
+        <v>0.05257225212003579</v>
+      </c>
+      <c r="F41">
+        <v>-0.004839755772527344</v>
+      </c>
+      <c r="G41">
+        <v>0.02727735225634771</v>
+      </c>
+      <c r="H41">
+        <v>-0.02931668678828972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02805866660551663</v>
+        <v>-0.02328408231161431</v>
       </c>
       <c r="C43">
-        <v>-0.01081120682507466</v>
+        <v>0.01821326955069627</v>
       </c>
       <c r="D43">
-        <v>0.1073075471258086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08628269673933828</v>
+      </c>
+      <c r="E43">
+        <v>0.02944436251979252</v>
+      </c>
+      <c r="F43">
+        <v>-0.0063569106304754</v>
+      </c>
+      <c r="G43">
+        <v>0.03182340504693636</v>
+      </c>
+      <c r="H43">
+        <v>-0.03755693124250858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0133785322859716</v>
+        <v>-0.01587591283907673</v>
       </c>
       <c r="C44">
-        <v>-0.04342632764416211</v>
+        <v>0.0421326765687069</v>
       </c>
       <c r="D44">
-        <v>0.08022735838328408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.10340124025075</v>
+      </c>
+      <c r="E44">
+        <v>0.06191165567813418</v>
+      </c>
+      <c r="F44">
+        <v>-0.01440438194057298</v>
+      </c>
+      <c r="G44">
+        <v>0.02287593193534619</v>
+      </c>
+      <c r="H44">
+        <v>-0.05146843391589694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01474557492517835</v>
+        <v>-0.01305342067100422</v>
       </c>
       <c r="C46">
-        <v>-0.02017282911152633</v>
+        <v>0.02956830242569442</v>
       </c>
       <c r="D46">
-        <v>0.08061034705524561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08742426349373217</v>
+      </c>
+      <c r="E46">
+        <v>0.0338524896929767</v>
+      </c>
+      <c r="F46">
+        <v>0.01129446011006222</v>
+      </c>
+      <c r="G46">
+        <v>0.009957001420549755</v>
+      </c>
+      <c r="H46">
+        <v>-0.07273056560217243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09347072957664314</v>
+        <v>-0.08125363016658983</v>
       </c>
       <c r="C47">
-        <v>-0.07495789586155506</v>
+        <v>0.09098005777320634</v>
       </c>
       <c r="D47">
-        <v>0.04624939698506435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03452732415647538</v>
+      </c>
+      <c r="E47">
+        <v>0.03572558901783086</v>
+      </c>
+      <c r="F47">
+        <v>-0.02011190630595403</v>
+      </c>
+      <c r="G47">
+        <v>-0.01341257916534409</v>
+      </c>
+      <c r="H47">
+        <v>0.0655491032388377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01213414118783007</v>
+        <v>-0.01456692585669655</v>
       </c>
       <c r="C48">
-        <v>-0.01315676515680156</v>
+        <v>0.01960946472996164</v>
       </c>
       <c r="D48">
-        <v>0.0618335348992067</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07190499057895269</v>
+      </c>
+      <c r="E48">
+        <v>0.05054401153733167</v>
+      </c>
+      <c r="F48">
+        <v>-0.0002116921078424675</v>
+      </c>
+      <c r="G48">
+        <v>0.002282121987580106</v>
+      </c>
+      <c r="H48">
+        <v>-0.05137007952647785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05766570993505117</v>
+        <v>-0.05052260898266934</v>
       </c>
       <c r="C50">
-        <v>-0.05456812131330598</v>
+        <v>0.06749228536542044</v>
       </c>
       <c r="D50">
-        <v>0.06195158231612019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05437794371114973</v>
+      </c>
+      <c r="E50">
+        <v>0.04229990558976544</v>
+      </c>
+      <c r="F50">
+        <v>-0.03774837053061123</v>
+      </c>
+      <c r="G50">
+        <v>0.03024429222015109</v>
+      </c>
+      <c r="H50">
+        <v>-0.005844678526797209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01024773874954763</v>
+        <v>-0.01061838792286043</v>
       </c>
       <c r="C51">
-        <v>-0.01354460157169542</v>
+        <v>0.01914065021468742</v>
       </c>
       <c r="D51">
-        <v>0.0786199335440052</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09059468491502262</v>
+      </c>
+      <c r="E51">
+        <v>0.01507557320356339</v>
+      </c>
+      <c r="F51">
+        <v>-0.006804633957340067</v>
+      </c>
+      <c r="G51">
+        <v>0.02417102198684024</v>
+      </c>
+      <c r="H51">
+        <v>-0.08416472861005789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08873592913245654</v>
+        <v>-0.08523425455356125</v>
       </c>
       <c r="C53">
-        <v>-0.08559883386903487</v>
+        <v>0.1013084959376156</v>
       </c>
       <c r="D53">
-        <v>0.001911243240376514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01532877004429844</v>
+      </c>
+      <c r="E53">
+        <v>0.11015210424558</v>
+      </c>
+      <c r="F53">
+        <v>-0.04991424882349682</v>
+      </c>
+      <c r="G53">
+        <v>-0.07465623639241989</v>
+      </c>
+      <c r="H53">
+        <v>0.01032525102734231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02861705859552409</v>
+        <v>-0.02541887988192923</v>
       </c>
       <c r="C54">
-        <v>-0.02584334264292837</v>
+        <v>0.03470505484588209</v>
       </c>
       <c r="D54">
-        <v>0.0938425237982508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09005841235084602</v>
+      </c>
+      <c r="E54">
+        <v>0.03693737886656021</v>
+      </c>
+      <c r="F54">
+        <v>0.006917986179904132</v>
+      </c>
+      <c r="G54">
+        <v>0.04709176356230296</v>
+      </c>
+      <c r="H54">
+        <v>-0.06767873292461363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0918109845927514</v>
+        <v>-0.08380237954711099</v>
       </c>
       <c r="C55">
-        <v>-0.06000143829699305</v>
+        <v>0.08057169410985549</v>
       </c>
       <c r="D55">
-        <v>-0.01456331906245597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005894378280735868</v>
+      </c>
+      <c r="E55">
+        <v>0.0590996155742019</v>
+      </c>
+      <c r="F55">
+        <v>-0.04352962729430342</v>
+      </c>
+      <c r="G55">
+        <v>-0.03893094184061355</v>
+      </c>
+      <c r="H55">
+        <v>0.004641323495318471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.141694650871015</v>
+        <v>-0.1301031936107483</v>
       </c>
       <c r="C56">
-        <v>-0.09529267361324444</v>
+        <v>0.1264521014129819</v>
       </c>
       <c r="D56">
-        <v>-0.00367079013943179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00716293428832969</v>
+      </c>
+      <c r="E56">
+        <v>0.06161422095125609</v>
+      </c>
+      <c r="F56">
+        <v>-0.03727989367110726</v>
+      </c>
+      <c r="G56">
+        <v>-0.02419499426038837</v>
+      </c>
+      <c r="H56">
+        <v>0.04673258138497143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01106938976718772</v>
+        <v>-0.01997075345301026</v>
       </c>
       <c r="C58">
-        <v>0.005778724554665399</v>
+        <v>0.02782492397588564</v>
       </c>
       <c r="D58">
-        <v>0.2885666971982273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3458367211122324</v>
+      </c>
+      <c r="E58">
+        <v>0.1906552999094495</v>
+      </c>
+      <c r="F58">
+        <v>-0.1108130331935407</v>
+      </c>
+      <c r="G58">
+        <v>0.08774224946874565</v>
+      </c>
+      <c r="H58">
+        <v>-0.0143792385259571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.142054511185893</v>
+        <v>-0.1797151605471463</v>
       </c>
       <c r="C59">
-        <v>0.189027700076304</v>
+        <v>-0.1684539741504942</v>
       </c>
       <c r="D59">
-        <v>0.03216780550476625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05221766740074664</v>
+      </c>
+      <c r="E59">
+        <v>0.01856277848604021</v>
+      </c>
+      <c r="F59">
+        <v>0.04356523435960755</v>
+      </c>
+      <c r="G59">
+        <v>-0.004802595451946864</v>
+      </c>
+      <c r="H59">
+        <v>0.01752730202746711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2451925036866393</v>
+        <v>-0.2279925113773056</v>
       </c>
       <c r="C60">
-        <v>-0.06451550200858434</v>
+        <v>0.103694882886268</v>
       </c>
       <c r="D60">
-        <v>0.21195396568077</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1212995053761261</v>
+      </c>
+      <c r="E60">
+        <v>-0.3595076254050474</v>
+      </c>
+      <c r="F60">
+        <v>-0.02186536620687349</v>
+      </c>
+      <c r="G60">
+        <v>-0.05787621678154713</v>
+      </c>
+      <c r="H60">
+        <v>0.1099828188134742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04508954090205126</v>
+        <v>-0.0401205305320194</v>
       </c>
       <c r="C61">
-        <v>-0.04889637374131284</v>
+        <v>0.06211335207820051</v>
       </c>
       <c r="D61">
-        <v>0.1017606446792643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0931589854133965</v>
+      </c>
+      <c r="E61">
+        <v>-0.00249163938185652</v>
+      </c>
+      <c r="F61">
+        <v>0.01623440524912114</v>
+      </c>
+      <c r="G61">
+        <v>0.01328358897909958</v>
+      </c>
+      <c r="H61">
+        <v>-0.04783684030692558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01686377958403914</v>
+        <v>-0.01505063552435632</v>
       </c>
       <c r="C63">
-        <v>-0.02087140787407845</v>
+        <v>0.03206440673012602</v>
       </c>
       <c r="D63">
-        <v>0.06186089889238564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06863516502225747</v>
+      </c>
+      <c r="E63">
+        <v>0.0278969635126857</v>
+      </c>
+      <c r="F63">
+        <v>-0.01996263505411344</v>
+      </c>
+      <c r="G63">
+        <v>0.01143546350843514</v>
+      </c>
+      <c r="H63">
+        <v>-0.05584341719864984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05652900851677679</v>
+        <v>-0.05131471392582568</v>
       </c>
       <c r="C64">
-        <v>-0.06765094733478769</v>
+        <v>0.08221160154402607</v>
       </c>
       <c r="D64">
-        <v>0.0603983545008652</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05634848440741338</v>
+      </c>
+      <c r="E64">
+        <v>0.02125655361613365</v>
+      </c>
+      <c r="F64">
+        <v>0.01730944893438981</v>
+      </c>
+      <c r="G64">
+        <v>-0.04411763119385557</v>
+      </c>
+      <c r="H64">
+        <v>-0.04638973137300794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04764823981674316</v>
+        <v>-0.04431767660814657</v>
       </c>
       <c r="C65">
-        <v>-0.01067536788193868</v>
+        <v>0.02812565761395326</v>
       </c>
       <c r="D65">
-        <v>0.1205436325162111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1202499081779756</v>
+      </c>
+      <c r="E65">
+        <v>0.002565532262724089</v>
+      </c>
+      <c r="F65">
+        <v>-0.01675478702963963</v>
+      </c>
+      <c r="G65">
+        <v>0.02024320092549978</v>
+      </c>
+      <c r="H65">
+        <v>-0.01245180689369428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04327101220221204</v>
+        <v>-0.03920536784471983</v>
       </c>
       <c r="C66">
-        <v>-0.05434954819056827</v>
+        <v>0.07587688656936931</v>
       </c>
       <c r="D66">
-        <v>0.1093301925670817</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1306505537917494</v>
+      </c>
+      <c r="E66">
+        <v>0.00867062296285326</v>
+      </c>
+      <c r="F66">
+        <v>0.01265073892427602</v>
+      </c>
+      <c r="G66">
+        <v>0.02478074330401618</v>
+      </c>
+      <c r="H66">
+        <v>-0.05623955722457423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0396089264481872</v>
+        <v>-0.03759487555442792</v>
       </c>
       <c r="C67">
-        <v>-0.01945965178391576</v>
+        <v>0.02651589337202548</v>
       </c>
       <c r="D67">
-        <v>0.0281356695579515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02436887138348804</v>
+      </c>
+      <c r="E67">
+        <v>0.01261396230759307</v>
+      </c>
+      <c r="F67">
+        <v>0.005192924020074489</v>
+      </c>
+      <c r="G67">
+        <v>0.04006906537518283</v>
+      </c>
+      <c r="H67">
+        <v>-0.0251997947050649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.164502551437167</v>
+        <v>-0.198103472005626</v>
       </c>
       <c r="C68">
-        <v>0.2303484165847291</v>
+        <v>-0.194943766298302</v>
       </c>
       <c r="D68">
-        <v>-0.009131904881434982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01658656085702875</v>
+      </c>
+      <c r="E68">
+        <v>0.04811573611549708</v>
+      </c>
+      <c r="F68">
+        <v>-0.03476464323287782</v>
+      </c>
+      <c r="G68">
+        <v>0.006321346493266875</v>
+      </c>
+      <c r="H68">
+        <v>-0.01750768432311426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08479096482281644</v>
+        <v>-0.07264490897256613</v>
       </c>
       <c r="C69">
-        <v>-0.08610510536116915</v>
+        <v>0.09743349608147803</v>
       </c>
       <c r="D69">
-        <v>0.07167675359771063</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0507210595429746</v>
+      </c>
+      <c r="E69">
+        <v>0.02159091036652312</v>
+      </c>
+      <c r="F69">
+        <v>-0.009493411093171266</v>
+      </c>
+      <c r="G69">
+        <v>-0.0108104879359444</v>
+      </c>
+      <c r="H69">
+        <v>0.0241297211512296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1440371336101066</v>
+        <v>-0.1853286215944927</v>
       </c>
       <c r="C71">
-        <v>0.2334037764247415</v>
+        <v>-0.2073804501873644</v>
       </c>
       <c r="D71">
-        <v>0.02186753551264333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04254924914673226</v>
+      </c>
+      <c r="E71">
+        <v>0.05194178221059621</v>
+      </c>
+      <c r="F71">
+        <v>-0.0363574562119361</v>
+      </c>
+      <c r="G71">
+        <v>-0.001792157010783279</v>
+      </c>
+      <c r="H71">
+        <v>0.01544633308822315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09852268125331132</v>
+        <v>-0.09804818960982696</v>
       </c>
       <c r="C72">
-        <v>-0.04235236854722601</v>
+        <v>0.07373021918285443</v>
       </c>
       <c r="D72">
-        <v>0.08730507842766495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09661316575222248</v>
+      </c>
+      <c r="E72">
+        <v>-0.03605642029685109</v>
+      </c>
+      <c r="F72">
+        <v>-0.03800208657912448</v>
+      </c>
+      <c r="G72">
+        <v>-0.02781165778547125</v>
+      </c>
+      <c r="H72">
+        <v>-0.05590406365859939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.258448551869522</v>
+        <v>-0.2373571261584175</v>
       </c>
       <c r="C73">
-        <v>-0.02868987111888456</v>
+        <v>0.0897071415329771</v>
       </c>
       <c r="D73">
-        <v>0.3219079981770866</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1601966299187478</v>
+      </c>
+      <c r="E73">
+        <v>-0.6637324000828216</v>
+      </c>
+      <c r="F73">
+        <v>0.00580386317498282</v>
+      </c>
+      <c r="G73">
+        <v>-0.07115779727600111</v>
+      </c>
+      <c r="H73">
+        <v>0.08419789867947071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1096315981688966</v>
+        <v>-0.09794342853483935</v>
       </c>
       <c r="C74">
-        <v>-0.06799074434470387</v>
+        <v>0.09194429826685012</v>
       </c>
       <c r="D74">
-        <v>0.006715537323933538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.001351306529365337</v>
+      </c>
+      <c r="E74">
+        <v>0.07868549129858553</v>
+      </c>
+      <c r="F74">
+        <v>-0.06983909890146558</v>
+      </c>
+      <c r="G74">
+        <v>-0.05873890416979816</v>
+      </c>
+      <c r="H74">
+        <v>0.01485824034770411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2503028162219946</v>
+        <v>-0.2271872560926479</v>
       </c>
       <c r="C75">
-        <v>-0.1255456001427732</v>
+        <v>0.1666094410508257</v>
       </c>
       <c r="D75">
-        <v>-0.07502247968913633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09820625383611294</v>
+      </c>
+      <c r="E75">
+        <v>0.1018148974615248</v>
+      </c>
+      <c r="F75">
+        <v>0.009780693219381931</v>
+      </c>
+      <c r="G75">
+        <v>-0.05113670019018841</v>
+      </c>
+      <c r="H75">
+        <v>0.09782516563948186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1408248796649728</v>
+        <v>-0.125618955842842</v>
       </c>
       <c r="C76">
-        <v>-0.08928906679484686</v>
+        <v>0.1144539120243036</v>
       </c>
       <c r="D76">
-        <v>-0.01403562238321517</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.009901313573051771</v>
+      </c>
+      <c r="E76">
+        <v>0.1180294368698132</v>
+      </c>
+      <c r="F76">
+        <v>-0.0226613305178726</v>
+      </c>
+      <c r="G76">
+        <v>-0.03076303509331626</v>
+      </c>
+      <c r="H76">
+        <v>-6.023009705381991e-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.05429447984442334</v>
+        <v>-0.05915610841339501</v>
       </c>
       <c r="C77">
-        <v>-0.0687455070781252</v>
+        <v>0.07045260431802772</v>
       </c>
       <c r="D77">
-        <v>0.03576638964638779</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1245269482611347</v>
+      </c>
+      <c r="E77">
+        <v>0.2325498461304902</v>
+      </c>
+      <c r="F77">
+        <v>0.2801750401703454</v>
+      </c>
+      <c r="G77">
+        <v>0.2550971337804352</v>
+      </c>
+      <c r="H77">
+        <v>0.771890469215686</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04000674829646132</v>
+        <v>-0.04331485120201473</v>
       </c>
       <c r="C78">
-        <v>-0.05537368786209169</v>
+        <v>0.06773010132868176</v>
       </c>
       <c r="D78">
-        <v>0.1248834323149978</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1376033545757749</v>
+      </c>
+      <c r="E78">
+        <v>0.01119253381287513</v>
+      </c>
+      <c r="F78">
+        <v>-0.01034739546406974</v>
+      </c>
+      <c r="G78">
+        <v>-0.0004743207753829361</v>
+      </c>
+      <c r="H78">
+        <v>0.0116659707743842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02640923925239078</v>
+        <v>-0.04646747380784225</v>
       </c>
       <c r="C79">
-        <v>-0.08043375770974669</v>
+        <v>0.09497833907072055</v>
       </c>
       <c r="D79">
-        <v>-0.06991346169839047</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01977495094178719</v>
+      </c>
+      <c r="E79">
+        <v>0.2235507344304718</v>
+      </c>
+      <c r="F79">
+        <v>-0.151578285748778</v>
+      </c>
+      <c r="G79">
+        <v>-0.8057856793542298</v>
+      </c>
+      <c r="H79">
+        <v>0.09073916245092291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03065262510196845</v>
+        <v>-0.02401392367818087</v>
       </c>
       <c r="C80">
-        <v>-0.03722711421909866</v>
+        <v>0.04617498427469927</v>
       </c>
       <c r="D80">
-        <v>0.01117401245401072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02243120792779717</v>
+      </c>
+      <c r="E80">
+        <v>0.02409678653339939</v>
+      </c>
+      <c r="F80">
+        <v>-0.001190066978087831</v>
+      </c>
+      <c r="G80">
+        <v>0.02793730774609176</v>
+      </c>
+      <c r="H80">
+        <v>-0.05492512707210714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1426990962632716</v>
+        <v>-0.1252365214555925</v>
       </c>
       <c r="C81">
-        <v>-0.1008080849445568</v>
+        <v>0.1209695590608402</v>
       </c>
       <c r="D81">
-        <v>-0.06192486433468393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07167153753475347</v>
+      </c>
+      <c r="E81">
+        <v>0.1139628344558537</v>
+      </c>
+      <c r="F81">
+        <v>-0.02100876441754049</v>
+      </c>
+      <c r="G81">
+        <v>-0.03776391167866588</v>
+      </c>
+      <c r="H81">
+        <v>0.02677726163913302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3130082130235723</v>
+        <v>-0.2554000845169553</v>
       </c>
       <c r="C82">
-        <v>-0.2606945872104969</v>
+        <v>0.2650314735605072</v>
       </c>
       <c r="D82">
-        <v>-0.2278768573381187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2395014976534111</v>
+      </c>
+      <c r="E82">
+        <v>-0.02299998733202402</v>
+      </c>
+      <c r="F82">
+        <v>-0.05533900998185053</v>
+      </c>
+      <c r="G82">
+        <v>0.1073702302556458</v>
+      </c>
+      <c r="H82">
+        <v>0.1342904276722879</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02913293656027083</v>
+        <v>-0.02057000934329918</v>
       </c>
       <c r="C83">
-        <v>-0.04956873234448229</v>
+        <v>0.05102748893394073</v>
       </c>
       <c r="D83">
-        <v>0.04425703059090121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04620766870405506</v>
+      </c>
+      <c r="E83">
+        <v>0.01554548439152185</v>
+      </c>
+      <c r="F83">
+        <v>0.05098460864222864</v>
+      </c>
+      <c r="G83">
+        <v>0.05656583778177601</v>
+      </c>
+      <c r="H83">
+        <v>0.0951578229431928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0007540343544460343</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004191633050104309</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01890807385384713</v>
+      </c>
+      <c r="E84">
+        <v>0.01931885682233801</v>
+      </c>
+      <c r="F84">
+        <v>-0.01005573149481583</v>
+      </c>
+      <c r="G84">
+        <v>0.004977576807731934</v>
+      </c>
+      <c r="H84">
+        <v>-0.01908495855117201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1783488644852502</v>
+        <v>-0.156096791801093</v>
       </c>
       <c r="C85">
-        <v>-0.100930758668072</v>
+        <v>0.137900296028955</v>
       </c>
       <c r="D85">
-        <v>-0.03144680976396488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05791579782361039</v>
+      </c>
+      <c r="E85">
+        <v>0.05109972821136895</v>
+      </c>
+      <c r="F85">
+        <v>-0.02938995250678217</v>
+      </c>
+      <c r="G85">
+        <v>-0.1070692759034751</v>
+      </c>
+      <c r="H85">
+        <v>-0.0228529528576031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01257154966659488</v>
+        <v>-0.01872650508592878</v>
       </c>
       <c r="C86">
-        <v>-0.03432223142080344</v>
+        <v>0.02387298557065177</v>
       </c>
       <c r="D86">
-        <v>0.1287925215097162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1205861901362111</v>
+      </c>
+      <c r="E86">
+        <v>0.003557712073356187</v>
+      </c>
+      <c r="F86">
+        <v>0.01744317144576661</v>
+      </c>
+      <c r="G86">
+        <v>0.0364940592494561</v>
+      </c>
+      <c r="H86">
+        <v>0.06676751417641111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02739040610401967</v>
+        <v>-0.03574482036885852</v>
       </c>
       <c r="C87">
-        <v>-0.009612484435496867</v>
+        <v>0.02539796454774879</v>
       </c>
       <c r="D87">
-        <v>0.09806009665062709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1387760200507047</v>
+      </c>
+      <c r="E87">
+        <v>0.07528154237109223</v>
+      </c>
+      <c r="F87">
+        <v>0.004029102850260088</v>
+      </c>
+      <c r="G87">
+        <v>0.02279825808914044</v>
+      </c>
+      <c r="H87">
+        <v>-0.0276656379717093</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07527397834589829</v>
+        <v>-0.06758654398908037</v>
       </c>
       <c r="C88">
-        <v>-0.03564403594812921</v>
+        <v>0.05393184095970535</v>
       </c>
       <c r="D88">
-        <v>0.0511698830941623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02848638669726655</v>
+      </c>
+      <c r="E88">
+        <v>-0.001149008336790215</v>
+      </c>
+      <c r="F88">
+        <v>-0.01901813028469087</v>
+      </c>
+      <c r="G88">
+        <v>-0.006795749050660651</v>
+      </c>
+      <c r="H88">
+        <v>-0.03476236314987381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2240362942717244</v>
+        <v>-0.2844388543257585</v>
       </c>
       <c r="C89">
-        <v>0.401359375832437</v>
+        <v>-0.3515341200431668</v>
       </c>
       <c r="D89">
-        <v>-0.04107000945030949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0005442583910572208</v>
+      </c>
+      <c r="E89">
+        <v>0.043986749111575</v>
+      </c>
+      <c r="F89">
+        <v>0.03505455198248643</v>
+      </c>
+      <c r="G89">
+        <v>-0.03105486837534381</v>
+      </c>
+      <c r="H89">
+        <v>-0.07124570487100497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1985223518120736</v>
+        <v>-0.2415984046999949</v>
       </c>
       <c r="C90">
-        <v>0.2958877611861573</v>
+        <v>-0.2491923651636968</v>
       </c>
       <c r="D90">
-        <v>-0.006494704189209416</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02005589974037496</v>
+      </c>
+      <c r="E90">
+        <v>0.05182898413556282</v>
+      </c>
+      <c r="F90">
+        <v>-0.002384649598918138</v>
+      </c>
+      <c r="G90">
+        <v>0.06697867298307585</v>
+      </c>
+      <c r="H90">
+        <v>-0.01403647796741027</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1838958024398786</v>
+        <v>-0.1568895666254242</v>
       </c>
       <c r="C91">
-        <v>-0.1427671266473848</v>
+        <v>0.1582407842622297</v>
       </c>
       <c r="D91">
-        <v>-0.0836102057206813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08463981183467602</v>
+      </c>
+      <c r="E91">
+        <v>0.1087490309312433</v>
+      </c>
+      <c r="F91">
+        <v>-0.02120136883637963</v>
+      </c>
+      <c r="G91">
+        <v>-0.09816270713598496</v>
+      </c>
+      <c r="H91">
+        <v>0.06761524662015901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1770658626896612</v>
+        <v>-0.227663506199038</v>
       </c>
       <c r="C92">
-        <v>0.294641243323564</v>
+        <v>-0.2709731151872908</v>
       </c>
       <c r="D92">
-        <v>0.008309042520443202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03108471628844967</v>
+      </c>
+      <c r="E92">
+        <v>0.09291830594449882</v>
+      </c>
+      <c r="F92">
+        <v>-0.0007834477288792614</v>
+      </c>
+      <c r="G92">
+        <v>0.03624494981529679</v>
+      </c>
+      <c r="H92">
+        <v>0.002340248625472248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2227508090533079</v>
+        <v>-0.2629936013192219</v>
       </c>
       <c r="C93">
-        <v>0.3108120998271164</v>
+        <v>-0.261842123902875</v>
       </c>
       <c r="D93">
-        <v>0.004792035112390177</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0003888085733611929</v>
+      </c>
+      <c r="E93">
+        <v>0.005113765940258929</v>
+      </c>
+      <c r="F93">
+        <v>-0.01470263625527756</v>
+      </c>
+      <c r="G93">
+        <v>-0.0122132053250073</v>
+      </c>
+      <c r="H93">
+        <v>-0.01771918078318235</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3925320019534295</v>
+        <v>-0.3344368607135983</v>
       </c>
       <c r="C94">
-        <v>-0.2232526742224367</v>
+        <v>0.2677141364063435</v>
       </c>
       <c r="D94">
-        <v>-0.4465812946712745</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4284691109276094</v>
+      </c>
+      <c r="E94">
+        <v>0.09402166060680314</v>
+      </c>
+      <c r="F94">
+        <v>0.01799151903275014</v>
+      </c>
+      <c r="G94">
+        <v>0.3190982551944525</v>
+      </c>
+      <c r="H94">
+        <v>-0.3378446303733122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07783192357977835</v>
+        <v>-0.06867471350553511</v>
       </c>
       <c r="C95">
-        <v>-0.05968740014292778</v>
+        <v>0.06662363791907747</v>
       </c>
       <c r="D95">
-        <v>0.1105088686572535</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07907934104140493</v>
+      </c>
+      <c r="E95">
+        <v>0.02527443675867555</v>
+      </c>
+      <c r="F95">
+        <v>0.9037241384611219</v>
+      </c>
+      <c r="G95">
+        <v>-0.1967308472917437</v>
+      </c>
+      <c r="H95">
+        <v>-0.2308654263649563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1690084119117613</v>
+        <v>-0.1613760345247499</v>
       </c>
       <c r="C98">
-        <v>-0.02454986845786121</v>
+        <v>0.06640198100682797</v>
       </c>
       <c r="D98">
-        <v>0.1769875885656797</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1226957627560958</v>
+      </c>
+      <c r="E98">
+        <v>-0.3156024007148783</v>
+      </c>
+      <c r="F98">
+        <v>-0.04269237885682733</v>
+      </c>
+      <c r="G98">
+        <v>-0.0585035485793031</v>
+      </c>
+      <c r="H98">
+        <v>0.06994405156376587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003741449942398969</v>
+        <v>-0.004736018919631583</v>
       </c>
       <c r="C101">
-        <v>-0.01642487643605609</v>
+        <v>0.02157219161822984</v>
       </c>
       <c r="D101">
-        <v>0.07158708289980995</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09033871297650964</v>
+      </c>
+      <c r="E101">
+        <v>0.03075776869801337</v>
+      </c>
+      <c r="F101">
+        <v>-0.01500555722314997</v>
+      </c>
+      <c r="G101">
+        <v>0.01379206290435556</v>
+      </c>
+      <c r="H101">
+        <v>-0.08772283534719115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1283393990452643</v>
+        <v>-0.1050908479343232</v>
       </c>
       <c r="C102">
-        <v>-0.114223388679445</v>
+        <v>0.1205859014562513</v>
       </c>
       <c r="D102">
-        <v>-0.04582760809947736</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06263690520311384</v>
+      </c>
+      <c r="E102">
+        <v>0.02391762961514807</v>
+      </c>
+      <c r="F102">
+        <v>0.02206885769615162</v>
+      </c>
+      <c r="G102">
+        <v>-0.009606655594590362</v>
+      </c>
+      <c r="H102">
+        <v>0.05410109698521547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
